--- a/biology/Botanique/Réséda/Réséda.xlsx
+++ b/biology/Botanique/Réséda/Réséda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9s%C3%A9da</t>
+          <t>Réséda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reseda
 Les résédas sont des plantes herbacées à fleurs généralement odorantes, appartenant au genre Reseda de la famille des Résédacées.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9s%C3%A9da</t>
+          <t>Réséda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantes herbacées, annuelles, bisannuelles ou vivaces, de 40 cm à 1,30 m environ de haut. Les feuilles alternées, de 1 à 15 cm de long, entières, dentées ou pennées, forment une rosette basale et s'étagent le long de la tige.
 Les fleurs sont peu spectaculaires, petites (4 à 6 mm de diamètre), blanches, jaunes, orange ou vertes. Elles comptent de 4 à 6 pétales et sont groupées en longues inflorescences (grappes ou épis). Les fruits sont des capsules contenant plusieurs graines noires.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9s%C3%A9da</t>
+          <t>Réséda</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Reseda alba L., le réséda blanc
 Reseda crystallina Webb &amp; Berthel.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9s%C3%A9da</t>
+          <t>Réséda</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,14 +604,88 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>En botanique
-Plantes ornementales
+          <t>En botanique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plantes ornementales
 Plantes médicinales : vulnéraire, diurétique, sudorifique
-Plantes tinctoriales
-En biologie
-Charles Darwin utilisa Reseda odorata pour ses études sur les plantes autofertiles, qu'il publia dans son ouvrage The Effects of Cross and Self-Fertilisation in the Vegetable Kingdom (Les effets de la reproduction croisée ou autogame dans le royaume végétal).
-Dans d'autres domaines
-"Le réséda et la rose" est un poème de Marona Tsvétaïéva (Extrait de deux recueils, 1913)
+Plantes tinctoriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Réséda</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9s%C3%A9da</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En biologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Darwin utilisa Reseda odorata pour ses études sur les plantes autofertiles, qu'il publia dans son ouvrage The Effects of Cross and Self-Fertilisation in the Vegetable Kingdom (Les effets de la reproduction croisée ou autogame dans le royaume végétal).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Réséda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9s%C3%A9da</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dans d'autres domaines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>"Le réséda et la rose" est un poème de Marona Tsvétaïéva (Extrait de deux recueils, 1913)
 La Rose et le Réséda est un poème de Louis Aragon (1943).
 Verlaine dans son 3e poème de la section « Mélancholia » (Après trois ans, poème saturnien), Théophile Gautier dans La Mansarde, Apollinaire dans Guirlande de Lou ou Robert Desnos dans Le Réséda : plusieurs poètes modernes évoquent la mélancolie à travers le réséda.
 Barbey d'Aurevilly évoque ces fleurs dans sa nouvelle Le dessous de cartes d'une partie de Whist.
@@ -607,37 +697,77 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R%C3%A9s%C3%A9da</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Réséda</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/R%C3%A9s%C3%A9da</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Langage des fleurs
-Dans le langage des fleurs, le réséda symbolise la modestie[1].
-Calendrier républicain
-Réséda est un prénom révolutionnaire présent dans le calendrier républicain français mais très rarement attribué. Après la Révolution, il n’est plus utilisé tout au long du XIXe siècle. En France, il est à nouveau attribué en 1903, 1910 et 1922 (entre trois et cinq fois), et une fois en 1993 .
-Il se fête le 5 octobre du calendrier grégorien qui correspond généralement au 14 vendémiaire dudit calendrier révolutionnaire[2] ou jour du réséda.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, le réséda symbolise la modestie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Réséda</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9s%C3%A9da</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réséda est un prénom révolutionnaire présent dans le calendrier républicain français mais très rarement attribué. Après la Révolution, il n’est plus utilisé tout au long du XIXe siècle. En France, il est à nouveau attribué en 1903, 1910 et 1922 (entre trois et cinq fois), et une fois en 1993 .
+Il se fête le 5 octobre du calendrier grégorien qui correspond généralement au 14 vendémiaire dudit calendrier révolutionnaire ou jour du réséda.
 Sur les autres projets Wikimedia :
 Réséda, sur Wikimedia CommonsRéséda, sur Wikispeciesréséda, sur le Wiktionnaire
 </t>
